--- a/assets/document/data-latih/Book7.xlsx
+++ b/assets/document/data-latih/Book7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31169779-204E-4F47-B09D-D5847F040FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2315D0FD-26B7-4EB6-84FF-6CDE40D38550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3090" windowWidth="29040" windowHeight="16080" xr2:uid="{C2679102-70ED-4256-A35C-90223275A06B}"/>
+    <workbookView xWindow="-26475" yWindow="-1800" windowWidth="20700" windowHeight="11565" xr2:uid="{5291F791-8372-40F5-B3F6-2B3F3803893C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33366202-7F7A-43AF-ADFD-80000C0AD37F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBE053B-0FEA-4330-BFEE-3D85FE9F2D68}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
